--- a/500all/speech_level/speeches_CHRG-114hhrg99775.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99775.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Walberg. A quorum being present, the subcommittee will come to order. Good morning, everyone. I would like to begin by welcoming our witnesses. Thank you for joining us to discuss an issue important to everyone in this room, protecting the health and safety of American workers.    We are here today because we all agree that hard-working men and women should be able to earn a paycheck without risking a serious injury or being exposed to a deadly disease. Every family deserves the peace of mind that their loved ones are safe on the job. We also agree that Federal policies play a role in meeting that shared goal.    This hearing is timely because next week marks 45 years that the Occupational Safety and Health Administration has helped keep American workers safe. As part of this Committee's oversight efforts, we were pleased to have Assistant Secretary Michaels join us last October to discuss what more can be done to promote safe and healthy working conditions.    The question before the Committee then and today is whether the workplace rules and regulations coming out of Washington serve the best interests of employees and their employers. Are they practical? Are they responsible? Are they fair? Are they created with transparency and enforced effectively?    These are important questions because the strongest health and safety rules will do little to protect America's workers if the rules are not followed and enforced, or if they are too confusing and complex to even implement in the first place.    I hope we have a thoughtful discussion today that addresses these points, particularly as they relate to OSHA's new silica standard.    In March, OSHA issued a final rule that significantly reduces the permissible exposure limit to crystalline silica. Silica is the second most common element found in the Earth's crust and a key component of manufactured products and construction materials. Exposure to high concentrations of silica dust can lead to a dangerous debilitating and even life-threatening disease. We have witnessed important progress in recent years, but we know there is more that can be done to keep workers out of harm's way.    That is why this Committee has pressed OSHA to use the tools at its disposal to enforce existing standards. Unfortunately, the agency has failed to do so. OSHA itself admits that 30 percent of tested job sites have not complied with the existing exposure limit for silica. The existing exposure limit for silica. Did I mention it was the existing exposure limit for silica?    This is an alarmingly high figure. Instead of enforcing the rules already on the books, the department spent significant time and resources crafting an entirely new regulatory regime. The department's first priority should have been enforcing existing standards, and some potentially in the room today may question whether these rules were followed and if indeed, as a result of not being enforced across the board, they experienced the results of silicosis.    If OSHA is unable or unwilling to enforce the current limit for silica exposure, why should we expect the results under these new standards to be any different?    Related to enforcement, some have raised concerns about whether the new standards can be responsibly enforced. It has been suggested that silica cannot be accurately measured at the reduced limit prescribed in the new law or new rule because many labs do not have the technology necessary to provide reliable results.    Will employers acting in good faith and trying to do the right thing be held accountable for an enforcement regime that is not feasible or practical?    These are important questions about enforcement, but there are also serious questions concerning implementation. Can these new rules be effectively implemented on the ground and under the time frame prescribed by OSHA? Employers may lack the time and resources necessary to adjust their workplaces to the requirements of the new rule. Others may find new controls simply unworkable. This is especially true for small businesses.    According to the National Federation of Independent Business, this rule will cost workplaces more than $7 billion each year. These costs will be borne by consumers and taxpayers, and may I suggest employees with a loss of jobs or loss of security in their jobs. They will be borne by all of these people in the form of higher prices for homes, bridges, roads, et cetera. These costs will be borne by workers in the form of fewer jobs. These are significant consequences for a rule that may do little to enhance worker health and safety, which is our key priority.    Hundreds of thousands of workplaces nationwide will be impacted by these new rules. We owe it to our Nation's job creators to provide the clarity and certainty they need to expand, hire, and succeed.    Just as importantly, we owe it to workers and their families to promote smart, responsible regulatory policies that are implemented and enforced in a way that serves their best interests. The workers with us today, and those working on countless job sites across the country deserve more than our good intentions and political rhetoric at times. They deserve good policies that lead to good results.    I know that we can work together to protect their health and well-being. It has happened here. It has happened here before and it can happen now, the well-being of hard-working men and women of this country.    I look forward to today's discussion, and will now yield to Ranking Member Wilson for her opening remarks.</t>
   </si>
   <si>
     <t>412412</t>
   </si>
   <si>
-    <t>Frederica S. Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wilson. Mr. Chairman, thank you for holding this hearing today to review OSHA's long-awaited rule updating the silica standard. The science is clear. Since 1974, the National Institute for Occupational Safety and Health has called for OSHA to cut the permissible exposure limit for general industry from 100 micrograms per cubic meter to 50. It took 42 years for OSHA's rule to catch up with the science.    In 1997, the World Health Organization's International Agency for Research on Cancer determined crystalline silica dust is causing damage to humans. The Department of Health and Human Services declared the same in 2000.    Silica dust causes silicosis, lung cancer, respiratory illnesses, such as COPD, and kidney disease. Yet, scientific research demonstrates OSHA's previous 40-year-old silica standard fails to adequately protect workers from these preventable diseases. Let me repeat, preventable. These diseases are preventable.    Extensive scientific evidence shows lung cancer and silicosis occur at exposure levels below OSHA's previous permissible exposure limit of 100 micrograms per cubic meter in general industry.    Surprisingly, the alarmingly out-of-date construction industry standard of 250 micrograms per cubic meter stems from a 1929 Public Health Service recommendation that the government acknowledged was not set at a level to protect workers from silicosis, but rather based solely on feasibility considerations of 1920s' technology and management methods.    OSHA's new silica dust standard reflects current science and technology. It will save lives. Over 800,000 construction workers and another 295,000 workers in general industry and maritime are exposed to crystalline silica in excess of the new more protective standard of 50 micrograms per cubic meter.    OSHA estimates this new standard, which includes engineering controls, training, prohibitions on dry sweeping, and medical surveillance, will save more than 600 lives each year, and prevent more than 900 cases of silicosis each year.    I just want to show here on the screen pictures of airborne silica. This is dust generated by a power saw cutting through concrete block with and without engineering controls. All it takes is water or air to control silica dust. These pictures make it abundantly clear how using simple controls reduces workers' exposure to silica dust, but useful statistics and the pictures fail to communicate the true toll on affected workers and their families.    This includes workers like Dale McNabb, Tom Ward, and Tim Brown, who have submitted statements for the record. I ask unanimous consent to include the statements of Mr. McNabb, Mr. Ward, and Mr. Brown into the record.</t>
   </si>
   <si>
@@ -82,36 +76,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Brady</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Chairman Walberg, Ranking Member Wilson, members of the Committee. On behalf of the 140,000 members of the National Association of Home Builders, I appreciate the opportunity to testify here today.    OSHA's new silica rule is the most significant health and safety standard ever issued for the construction industry. Throughout the rulemaking process, NAHB sought to engage with OSHA to create a workable rule which protects our workers. Unfortunately, OSHA failed to address many of the industry concerns, and the final rule reflects a fundamental lack of understanding of construction and is technologically and economically infeasible.    We strongly urge OSHA to revisit the rule and work with us to create a new rule that protects workers while also balancing the technological and economic challenges in the residential construction sector. Absent that, Congress must move swiftly to stop this flawed rule.    OSHA's new silica standard requires a staggering 80 percent reduction in the permissible exposure limit, or PEL, for the construction industry. To achieve this dramatically lower PEL, OSHA has concocted an aggressive compliance regime of engineering and work practice controls that in many cases cannot be applied in residential construction.    If this rule goes into effect, we will have two options to comply. The first option is to measure the amount of silica a worker is exposed to. This is incredibly challenging to do in the field where multiple workers may be performing multiple tasks and where many environmental factors play a significant role.    Employers would need to track individual employees and would be required to pay for the worker to receive a thorough medical checkup, even though the medical checkup and the results will not tell what tasks or even on which jobsite might, and I emphasize ``might'' be contributing to the potential health problems.    The second option is for employers to follow the engineering and work practice control requirements in Table 1. Unfortunately, these requirements are often impractical and at times impossible to implement in the field.    For example, Table 1 relies heavily on wet cutting methods. That seems simple, but, frankly, we might not even have water service to the jobsite for weeks or possibly months after the job starts. Wet cutting is also impractical indoors, adding water to an indoor environment, and during the winter months, can unrealistically or could potentially create even greater hazards outdoors.    It is also important to consider the economic impact of this rule on the construction industry. OSHA estimates that the total costs of the final rule are just over $1 billion annually. This estimate drastically underestimates the impact this rule will have on our industry.    An independent analysis of the rule, which NAHB helped fund, estimated the true cost at nearly $5 billion. Residential construction's share of this cost means nearly 25 percent of the profits for the industry would be consumed by this single rule.    You might have a notion that homebuilders have high profit margins. The reality is the typical margin is around 6.4 percent. I raise this point because OSHA's guidelines for justifying a new rule is the cost should be no more than 10 percent of the industry's profits. They missed the mark here.    To see how far they are off, let's look quickly at the health screening I mentioned earlier. OSHA estimates the screening will run at least $377 per test, each. There are 3.2 million construction workers. If each construction employee required one screening per year, that cost alone would be roughly $1.2 billion a year.    OSHA also severely underestimated other compliance costs. Most of our members at NAHB are small firms, family businesses, and do not have the expertise to comply with some of the requirements of the rule. Many will need to contract for the services of recordkeeping. OSHA's economic analysis identifies just over 477,000 affected businesses in the construction industry. If you assume a minimal cost of routine bookkeeping services at $200 a month, it would work out to $1.1 billion per year just for the recordkeeping compliance.    We feel that OSHA simply failed to account for the true costs of these expenses in their economic analysis.    Let me be clear. NAHB joins OSHA in its stated goal of reducing workplace illnesses and injuries. The debate is not over whether to protect our workers, but how best to protect our workers.    I urge Congress to consider ways to forestall the implementation of this deeply flawed rule until OSHA has revisited the potential burden this rule will put on small businesses.    I thank you for the opportunity to share my views, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Mr. Brady. I recognize Ms. Herschkowitz for your five minutes of testimony.</t>
   </si>
   <si>
-    <t>Herschkowitz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Herschkowitz. Thank you, Chairman Walberg, Ranking Member Wilson, and members of the subcommittee. Thank you for the opportunity to discuss OSHA's recently published silica rule and its detrimental impact on the U.S. metal casting industry.    My name is Jan Herschkowitz, president of PRL, Inc. My family moved to the States from Bolivia in 1971 to pursue the American dream. My father purchased a small company with 13 employees, which he eventually grew to three companies. In 1988, I moved back to Pennsylvania from Chicago to run the family business after he was diagnosed with cancer. Following his death in 1989, I opened a foundry which is one of the cleanest and most advanced foundries in the U.S.    Today, we have four manufacturing facilities, are a key military supplier, and proudly employ 150 highly skilled workers who play a vital role in our success.    I am testifying before you today as a member of the American Foundry Society, our industry's trade association, which is comprised of more than 7,500 members.    Our industry employs over 200,000 workers who are proud that their metal castings have applications in virtually every capital and consumer good produced. Eighty percent of all foundries employ fewer workers than 100, including ours.    As a Nation, we depend on castings in all facets of our lives, including transportation, heating our homes, and, most importantly, providing us with power, and playing a critical role in our Nation's defense, including submarines and carriers. PRL's key customers include Electric Boat, Northrop-Grumman, and Curtiss-Wright.    AFS members are highly committed to protecting their employees and implementing sound safety policies. PRL's culture is one of safety first above all else, as the risks of pouring molten metal are taken very seriously by every co-worker, and we continually invest in safety equipment, experts, preventive maintenance, and training. We also have a certified safety committee which consists of co-workers from every level of our organization.    Realizing the silica sand we are talking about today is used by foundries to make molten metal, and it is the same sand that is found on our beaches. I will only discuss a few of the ways this regulation will impact the foundry industry as my submitted testimony is much more detailed.    Under the rule, the sharply reduced permissible exposure levels of 50 micrograms and an action level of 25 micrograms equates to the contents of a packet of Sweet'N Low sugar over a football field 13 feet high. This is the same air quality requirements of a clean room. Metal casting operations are simply not capable of achieving this level of dust control.    The rule also mandates extensive and costly engineering controls. Metal casters will have to exhaust all feasible engineering and work practice controls to meet the expense of requirements before we are allowed to use respirators. This means we could be forced to spend well over $1.4 million with no guarantee they will work.    There are certain operations in the foundry, such as grinding, where no matter how much is spent on controls, consistent compliance will not be achieved. Under the rule, regulated areas with control access and mandatory respirator usage will need to be established. This presents a logistical nightmare as it means that a forklift operator or a manager who may be in the area for just a minute will need to put on a respirator and will not be able to talk.    Under the regulation, dry vacuuming is not allowed and a wet vac will now be required. This is wrong. As everybody knows, you never, ever want to introduce water in an area where molten metal is poured. An explosion could occur, and workers lives' would be jeopardized. Also, other metal objects which may be wet, might not even be wet, but may be wet, can no longer be recycled and will go into our landfills.    OSHA drastically underestimates the cost to comply, and disregards the intent of SBREFA. In reality, the actual costs of the rule are 50 times higher than OSHA estimates, and in the final rule, OSHA estimated costs of compliance for the foundry industry was at $47 million or $32,000 per foundry. Our independent analysis shows the rule actually costs the industry over $2.2 billion, which equates to over $1 million per foundry.    Additional costs include capital equipment, plant modifications, lost production time, recordkeeping, training, legal, medical, permits, engineering, monitoring, cleaning, and sand disposal expenses.    In closing, although very well intended, our concern is that OSHA's silica regulation will cause significant foundry closures which will shift production offshore to countries like China, who have minimum worker safety rules.    I firmly believe that this rule not only poses a threat to our national security, but it will also cause many good, highly skilled people from numerous manufacturing sectors to lose their jobs.    Mr. Chairman, I would submit this is simply wrong. Thank you for the opportunity to be here today, and I would be happy to respond to any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Ms. Herschkowitz. Dr. Melius, your 5 minutes are recognized right now.</t>
   </si>
   <si>
-    <t>Melius</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Melius. Thank you, Honorable Chairman Walberg, Ranking Member Wilson, other members of the subcommittee. I greatly appreciate the opportunity to appear before you today at this hearing.    As you said earlier, I was an occupational physician and epidemiologist. I currently work for labor-management organizations within the unionized construction industry, focusing on health and safety issues in construction.    I have over 40 years of experience in occupational and environmental health. I have been involved, I have followed the development and public review of the recently released OSHA silica standard, submitted comments, and testified at the hearings, and submitted post-hearing comments on the proposed standard.    One of my first patients, while working in an occupational medicine clinic in Chicago in the 1970s, was a young man with severe and rapidly progressive silicosis caused by his work in a foundry. He died while in his early thirties from this disease, leaving a young family.    Throughout my career in occupational health, I have continued to encounter cases of silicosis among foundry and construction workers. As Representative Wilson has already introduced, the three bricklayers and family members of bricklayers are behind me, who experienced in their family or themselves silicosis.    We recently did a small survey of our tunnel workers in New York and found nearly 40 percent of them--again, young tunnel workers--had developed early stages of silicosis as a result of their work building tunnels in the New York City area.    Silicosis is not just a disease of the past. Workers continue to develop this disease and the illness can have a serious impact on their health, their ability to work, and on their families.    I believe that OSHA has done an excellent job of developing the new silicosis standard. I would like to outline a few of the major reasons why I believe this regulation is a significant step forward in addressing this major occupational health problem.    OSHA's review of the available scientific data and additional scientific studies presented during the rulemaking process provide a sound scientific basis for the new standard. They have identified key diseases, and the more recent scientific studies have provided the basis for the new standard that they put forward of 50 micrograms per cubic meter.    The current OSHA standard, as has been mentioned, comes from the 1920s. It was based on a purely practical way of what could be done to deal with some of the extremely high exposures in some of the industries at that time, tunnel, quarry work, and so forth.    That standard has not been changed until recently, and if that standard were still in place and left in place, one could have a very high rate of cancer, silicosis, and other silica related diseases among people working at those levels of exposure.    Some of the extrapolations in the OSHA rulemaking process estimated up to 100 percent of construction workers exposed to silica would at the then-current standard develop silicosis. It is clearly unacceptable not to control this to a much lower limit.    We do not view and I do not view the major problem to be an issue of enforcement. I believe the major problem is that the current standard in place is not adequate to prevent most silica-related illnesses. We need to change the standard, it has gone on for far too long.    I think it is also important as some of the other witnesses have stated, that we need to have practical ways of controlling exposure. As I look at it, whether it is a half- full or half empty glass, I think a major step forward in construction is to have these tasks outlined and to make compliance easier in that industry.    Up here, I am showing two of the pictures. These are people, bricklayers, and the effect of ventilation from the equipment they use. This is a milling machine that is used to take up old pavement. I do not know if you can turn that so it can be seen by the committee. Again, this is a before and after picture.    The asphalt paving industry put a lot of effort into developing proper ventilation controls for their industry in order to be able to meet the silica standards. This work started long before the standard was even proposed.    As you can see in the first picture, and if you have ever been behind a milling machine, you know how much dust is generated, and in the second picture, which I actually believe is a picture from Michigan, by the way, the Upper Peninsula, where some of this research was done, showing that with proper ventilation, ventilation being readily available through all manufacturers, you can control silica exposures. They were able to meet the new standard through this, and at a relatively reasonable price for doing so.    I think this kind of development--I think one thing that is important in looking at costs and effectiveness is not only the fact that people will meet the standard, but they will develop better technology and better approaches to be able to do that.    I think we have to take that into account as we look forward to what is going to happen as a result of this standard going into place.    I will end my oral testimony here. I am out of time, I see. I would be glad to answer any questions later. Thank you.    [The statement and additional submission of Dr. Melius follows:]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Doctor, and thank you for bringing my thoughts back to Pure Michigan. Now, for your five minutes of testimony, we recognize Mr. Chajet.</t>
   </si>
   <si>
-    <t>Chajet</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chajet. Thank you, Mr. Chairman, and members of the Committee.</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. Thank you, Chairman. I appreciate having this hearing. Mr. Chajet, you have practiced law, you have experience practicing administrative law, correct?</t>
   </si>
   <si>
@@ -250,9 +229,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman, and thank you for your attention to this matter, bringing this before the Committee, and thank you to the panel for being here today and providing your testimony.    Mr. Brady, I was interested in hearing all of this testimony. It is amazing to me what is going on here and how pervasive it is across the government and the economy. We hear the same concern in just about every section of the economy that is regulated by the Federal government.    Your testimony highlights some of the safety concerns that engineering controls create, such as water sprays on a tile roof. It seems to me that we might be solving a problem and creating another. Can you explain how the final rule fails to adequately address the safety concerns?</t>
   </si>
   <si>
@@ -298,9 +274,6 @@
     <t>412585</t>
   </si>
   <si>
-    <t>Mark Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman, and thank you to the witnesses for being here. I think this is my third hearing on silica.    I have to admit sometimes I start to lose my patience a little as we go through these hearings when I hear some of the comments. I am not a lawyer. I am not the CEO of a big business. I have a small specialty printing business, a union shop. I have done every job that any employee in my business has done over the years. I only make money when I have customers and when I have employees to do the work because I cannot do everything. I value my employees far more than I value my equipment.    We just bought a brand new UV printer that was about $75,000. I can buy a cheaper solvent printer for $25,000, but that puts organic compounds into the air, causes health risks. There are other good things about the printer, but clearly, part of the decision I made was I want to make sure my employees are not exposed to problems.    I have heard a lot of bad math and slippery language during this debate. So, if I can maybe just try to address some of this and ask a few questions.    Mr. Chajet, I am going to pass on you right now and ask the people who are employers questions. I know you raised a lot of concerns about sand. Honestly, my guess is as a lawyer for the U.S. Chamber, the closest you are going to get to exposure to sand is if you go on vacation to the Caribbean.    Let me ask Mr. Brady a question, if I could, specifically. There is another construction company, a medium-sized company in Illinois, Englewood Construction, and the director of operations there, if I could just read his quote real quickly in the time I have. Let me just get to the relevant part maybe.    He said, ``Many of the new silica guidelines formulize existing best practices. Elements of the silica rule will require real change and will take time, effort, and yes, money, to implement consistently. It is easy to see the cost of protection for our workers, but how do you put a price on workers' health and long-term well-being?'' He goes on a little longer.    I really sympathize with that because I understand. I think you have employees and I am sure you go to their family events, you watch their kids graduate, and everything, and I know that is an important part of it. One of the things you said is you talked about up to 3.2 million construction workers and these physicals they are going to have.    The reality is it is only if they have 30 days on a respirator, and that is only a fraction, a very small fraction of the jobs that require it, and it is every three years. I put that in the ``slippery language'' category. It is not quite where it is at.    I would ask the question, how do you value what a life is worth? What is a life worth? It is a tough question.</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t xml:space="preserve">    Chairman Walberg. I will now recognize the Ranking Member of the full Committee, Mr. Scott, for his questioning.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. Dr. Melius, can you give us a little history about how long we have known about the dangers of silica?</t>
   </si>
   <si>
@@ -400,9 +370,6 @@
     <t>412607</t>
   </si>
   <si>
-    <t>Alma S. Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Chairman Walberg and Ranking Member Wilson, and I would also like to thank our witnesses for testifying today.    Before I get started, I want to just make a very simple point about the Department of Labor. One of their primary reasons for existence is to improve working conditions for working people. It is clear that the purpose of this rule is to improve the working conditions of some of our most vulnerable employees.    As we know, exposure to silica is a serious health hazard, and while many have pointed to reductions in silicosis as a reason to oppose this rule, I believe these generalizations are very misguided, especially for low-wage workers who are often workers of color.    Silica dust-related illnesses have a greater impact on low-income and ethnic minority groups than on the job populations, and it is especially true for the Latino community.    Dr. Melius, with that in mind, can you speak to the positive impact this rule will have on low-wage earners and communities of color who are disproportionately affected by silica-related illnesses?</t>
   </si>
   <si>
@@ -424,7 +391,7 @@
     <t xml:space="preserve">    Chairman Walberg. I thank the gentlelady. I recognize the gentleman from California, Mr. DeSaulnier.</t>
   </si>
   <si>
-    <t>Desaulnier</t>
+    <t>412613</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Desaulnier. Thank you, Mr. Chairman. First, a question for Ms. Herschkowitz. I was just handed this document that I am told is part of a trade association that you are a part of, ``Control Silica Exposure in Foundries,'' are you familiar with this?</t>
@@ -928,11 +895,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -952,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -980,11 +943,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1004,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1032,11 +991,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1058,11 +1015,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1082,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1110,11 +1063,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1134,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1162,11 +1111,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1186,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1214,11 +1159,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1238,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1266,11 +1207,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1290,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1318,11 +1255,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1342,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1368,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1394,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1420,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1446,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1472,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1498,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1524,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1550,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1576,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1602,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1628,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1654,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1680,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1706,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1732,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1758,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1784,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1810,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1836,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1862,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1888,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1914,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1940,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1966,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1994,11 +1879,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2018,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2044,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2072,11 +1951,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2096,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2122,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2148,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2174,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2200,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2226,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2252,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2278,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2304,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2332,11 +2191,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2356,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2382,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2408,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2434,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2460,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2486,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2512,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>77</v>
-      </c>
-      <c r="G63" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2538,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2564,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2590,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2616,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2642,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2668,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2696,11 +2527,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2720,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2746,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2772,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
-      </c>
-      <c r="G73" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2798,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2824,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2850,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2876,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2902,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2928,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>94</v>
-      </c>
-      <c r="H79" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2954,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2980,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3008,11 +2815,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3032,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3058,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>93</v>
-      </c>
-      <c r="G84" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3086,11 +2887,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3110,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3136,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3162,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3188,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3214,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3240,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3266,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3292,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3318,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3344,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3370,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3396,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3422,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3448,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3474,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>110</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3502,11 +3271,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3526,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>127</v>
-      </c>
-      <c r="G102" t="s">
-        <v>128</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3552,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3578,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>127</v>
-      </c>
-      <c r="G104" t="s">
-        <v>128</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3604,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3630,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" t="s">
-        <v>128</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3656,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3682,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3710,11 +3463,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3734,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3760,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3786,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3812,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3838,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3864,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3890,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3916,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3942,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3968,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3994,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4020,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4048,11 +3775,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4072,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4100,11 +3823,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4124,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4152,11 +3871,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4176,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4204,11 +3919,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4228,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4256,11 +3967,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4280,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4308,11 +4015,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4332,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4360,11 +4063,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4384,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4412,11 +4111,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4436,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4464,11 +4159,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4488,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4516,11 +4207,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4540,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4568,11 +4255,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4592,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4618,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4646,11 +4327,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99775.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99775.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Walberg</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Walberg. A quorum being present, the subcommittee will come to order. Good morning, everyone. I would like to begin by welcoming our witnesses. Thank you for joining us to discuss an issue important to everyone in this room, protecting the health and safety of American workers.    We are here today because we all agree that hard-working men and women should be able to earn a paycheck without risking a serious injury or being exposed to a deadly disease. Every family deserves the peace of mind that their loved ones are safe on the job. We also agree that Federal policies play a role in meeting that shared goal.    This hearing is timely because next week marks 45 years that the Occupational Safety and Health Administration has helped keep American workers safe. As part of this Committee's oversight efforts, we were pleased to have Assistant Secretary Michaels join us last October to discuss what more can be done to promote safe and healthy working conditions.    The question before the Committee then and today is whether the workplace rules and regulations coming out of Washington serve the best interests of employees and their employers. Are they practical? Are they responsible? Are they fair? Are they created with transparency and enforced effectively?    These are important questions because the strongest health and safety rules will do little to protect America's workers if the rules are not followed and enforced, or if they are too confusing and complex to even implement in the first place.    I hope we have a thoughtful discussion today that addresses these points, particularly as they relate to OSHA's new silica standard.    In March, OSHA issued a final rule that significantly reduces the permissible exposure limit to crystalline silica. Silica is the second most common element found in the Earth's crust and a key component of manufactured products and construction materials. Exposure to high concentrations of silica dust can lead to a dangerous debilitating and even life-threatening disease. We have witnessed important progress in recent years, but we know there is more that can be done to keep workers out of harm's way.    That is why this Committee has pressed OSHA to use the tools at its disposal to enforce existing standards. Unfortunately, the agency has failed to do so. OSHA itself admits that 30 percent of tested job sites have not complied with the existing exposure limit for silica. The existing exposure limit for silica. Did I mention it was the existing exposure limit for silica?    This is an alarmingly high figure. Instead of enforcing the rules already on the books, the department spent significant time and resources crafting an entirely new regulatory regime. The department's first priority should have been enforcing existing standards, and some potentially in the room today may question whether these rules were followed and if indeed, as a result of not being enforced across the board, they experienced the results of silicosis.    If OSHA is unable or unwilling to enforce the current limit for silica exposure, why should we expect the results under these new standards to be any different?    Related to enforcement, some have raised concerns about whether the new standards can be responsibly enforced. It has been suggested that silica cannot be accurately measured at the reduced limit prescribed in the new law or new rule because many labs do not have the technology necessary to provide reliable results.    Will employers acting in good faith and trying to do the right thing be held accountable for an enforcement regime that is not feasible or practical?    These are important questions about enforcement, but there are also serious questions concerning implementation. Can these new rules be effectively implemented on the ground and under the time frame prescribed by OSHA? Employers may lack the time and resources necessary to adjust their workplaces to the requirements of the new rule. Others may find new controls simply unworkable. This is especially true for small businesses.    According to the National Federation of Independent Business, this rule will cost workplaces more than $7 billion each year. These costs will be borne by consumers and taxpayers, and may I suggest employees with a loss of jobs or loss of security in their jobs. They will be borne by all of these people in the form of higher prices for homes, bridges, roads, et cetera. These costs will be borne by workers in the form of fewer jobs. These are significant consequences for a rule that may do little to enhance worker health and safety, which is our key priority.    Hundreds of thousands of workplaces nationwide will be impacted by these new rules. We owe it to our Nation's job creators to provide the clarity and certainty they need to expand, hire, and succeed.    Just as importantly, we owe it to workers and their families to promote smart, responsible regulatory policies that are implemented and enforced in a way that serves their best interests. The workers with us today, and those working on countless job sites across the country deserve more than our good intentions and political rhetoric at times. They deserve good policies that lead to good results.    I know that we can work together to protect their health and well-being. It has happened here. It has happened here before and it can happen now, the well-being of hard-working men and women of this country.    I look forward to today's discussion, and will now yield to Ranking Member Wilson for her opening remarks.</t>
   </si>
   <si>
     <t>412412</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Frederica</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wilson. Mr. Chairman, thank you for holding this hearing today to review OSHA's long-awaited rule updating the silica standard. The science is clear. Since 1974, the National Institute for Occupational Safety and Health has called for OSHA to cut the permissible exposure limit for general industry from 100 micrograms per cubic meter to 50. It took 42 years for OSHA's rule to catch up with the science.    In 1997, the World Health Organization's International Agency for Research on Cancer determined crystalline silica dust is causing damage to humans. The Department of Health and Human Services declared the same in 2000.    Silica dust causes silicosis, lung cancer, respiratory illnesses, such as COPD, and kidney disease. Yet, scientific research demonstrates OSHA's previous 40-year-old silica standard fails to adequately protect workers from these preventable diseases. Let me repeat, preventable. These diseases are preventable.    Extensive scientific evidence shows lung cancer and silicosis occur at exposure levels below OSHA's previous permissible exposure limit of 100 micrograms per cubic meter in general industry.    Surprisingly, the alarmingly out-of-date construction industry standard of 250 micrograms per cubic meter stems from a 1929 Public Health Service recommendation that the government acknowledged was not set at a level to protect workers from silicosis, but rather based solely on feasibility considerations of 1920s' technology and management methods.    OSHA's new silica dust standard reflects current science and technology. It will save lives. Over 800,000 construction workers and another 295,000 workers in general industry and maritime are exposed to crystalline silica in excess of the new more protective standard of 50 micrograms per cubic meter.    OSHA estimates this new standard, which includes engineering controls, training, prohibitions on dry sweeping, and medical surveillance, will save more than 600 lives each year, and prevent more than 900 cases of silicosis each year.    I just want to show here on the screen pictures of airborne silica. This is dust generated by a power saw cutting through concrete block with and without engineering controls. All it takes is water or air to control silica dust. These pictures make it abundantly clear how using simple controls reduces workers' exposure to silica dust, but useful statistics and the pictures fail to communicate the true toll on affected workers and their families.    This includes workers like Dale McNabb, Tom Ward, and Tim Brown, who have submitted statements for the record. I ask unanimous consent to include the statements of Mr. McNabb, Mr. Ward, and Mr. Brown into the record.</t>
   </si>
   <si>
@@ -76,24 +91,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Brady</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Chairman Walberg, Ranking Member Wilson, members of the Committee. On behalf of the 140,000 members of the National Association of Home Builders, I appreciate the opportunity to testify here today.    OSHA's new silica rule is the most significant health and safety standard ever issued for the construction industry. Throughout the rulemaking process, NAHB sought to engage with OSHA to create a workable rule which protects our workers. Unfortunately, OSHA failed to address many of the industry concerns, and the final rule reflects a fundamental lack of understanding of construction and is technologically and economically infeasible.    We strongly urge OSHA to revisit the rule and work with us to create a new rule that protects workers while also balancing the technological and economic challenges in the residential construction sector. Absent that, Congress must move swiftly to stop this flawed rule.    OSHA's new silica standard requires a staggering 80 percent reduction in the permissible exposure limit, or PEL, for the construction industry. To achieve this dramatically lower PEL, OSHA has concocted an aggressive compliance regime of engineering and work practice controls that in many cases cannot be applied in residential construction.    If this rule goes into effect, we will have two options to comply. The first option is to measure the amount of silica a worker is exposed to. This is incredibly challenging to do in the field where multiple workers may be performing multiple tasks and where many environmental factors play a significant role.    Employers would need to track individual employees and would be required to pay for the worker to receive a thorough medical checkup, even though the medical checkup and the results will not tell what tasks or even on which jobsite might, and I emphasize ``might'' be contributing to the potential health problems.    The second option is for employers to follow the engineering and work practice control requirements in Table 1. Unfortunately, these requirements are often impractical and at times impossible to implement in the field.    For example, Table 1 relies heavily on wet cutting methods. That seems simple, but, frankly, we might not even have water service to the jobsite for weeks or possibly months after the job starts. Wet cutting is also impractical indoors, adding water to an indoor environment, and during the winter months, can unrealistically or could potentially create even greater hazards outdoors.    It is also important to consider the economic impact of this rule on the construction industry. OSHA estimates that the total costs of the final rule are just over $1 billion annually. This estimate drastically underestimates the impact this rule will have on our industry.    An independent analysis of the rule, which NAHB helped fund, estimated the true cost at nearly $5 billion. Residential construction's share of this cost means nearly 25 percent of the profits for the industry would be consumed by this single rule.    You might have a notion that homebuilders have high profit margins. The reality is the typical margin is around 6.4 percent. I raise this point because OSHA's guidelines for justifying a new rule is the cost should be no more than 10 percent of the industry's profits. They missed the mark here.    To see how far they are off, let's look quickly at the health screening I mentioned earlier. OSHA estimates the screening will run at least $377 per test, each. There are 3.2 million construction workers. If each construction employee required one screening per year, that cost alone would be roughly $1.2 billion a year.    OSHA also severely underestimated other compliance costs. Most of our members at NAHB are small firms, family businesses, and do not have the expertise to comply with some of the requirements of the rule. Many will need to contract for the services of recordkeeping. OSHA's economic analysis identifies just over 477,000 affected businesses in the construction industry. If you assume a minimal cost of routine bookkeeping services at $200 a month, it would work out to $1.1 billion per year just for the recordkeeping compliance.    We feel that OSHA simply failed to account for the true costs of these expenses in their economic analysis.    Let me be clear. NAHB joins OSHA in its stated goal of reducing workplace illnesses and injuries. The debate is not over whether to protect our workers, but how best to protect our workers.    I urge Congress to consider ways to forestall the implementation of this deeply flawed rule until OSHA has revisited the potential burden this rule will put on small businesses.    I thank you for the opportunity to share my views, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Mr. Brady. I recognize Ms. Herschkowitz for your five minutes of testimony.</t>
   </si>
   <si>
+    <t>Herschkowitz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Herschkowitz. Thank you, Chairman Walberg, Ranking Member Wilson, and members of the subcommittee. Thank you for the opportunity to discuss OSHA's recently published silica rule and its detrimental impact on the U.S. metal casting industry.    My name is Jan Herschkowitz, president of PRL, Inc. My family moved to the States from Bolivia in 1971 to pursue the American dream. My father purchased a small company with 13 employees, which he eventually grew to three companies. In 1988, I moved back to Pennsylvania from Chicago to run the family business after he was diagnosed with cancer. Following his death in 1989, I opened a foundry which is one of the cleanest and most advanced foundries in the U.S.    Today, we have four manufacturing facilities, are a key military supplier, and proudly employ 150 highly skilled workers who play a vital role in our success.    I am testifying before you today as a member of the American Foundry Society, our industry's trade association, which is comprised of more than 7,500 members.    Our industry employs over 200,000 workers who are proud that their metal castings have applications in virtually every capital and consumer good produced. Eighty percent of all foundries employ fewer workers than 100, including ours.    As a Nation, we depend on castings in all facets of our lives, including transportation, heating our homes, and, most importantly, providing us with power, and playing a critical role in our Nation's defense, including submarines and carriers. PRL's key customers include Electric Boat, Northrop-Grumman, and Curtiss-Wright.    AFS members are highly committed to protecting their employees and implementing sound safety policies. PRL's culture is one of safety first above all else, as the risks of pouring molten metal are taken very seriously by every co-worker, and we continually invest in safety equipment, experts, preventive maintenance, and training. We also have a certified safety committee which consists of co-workers from every level of our organization.    Realizing the silica sand we are talking about today is used by foundries to make molten metal, and it is the same sand that is found on our beaches. I will only discuss a few of the ways this regulation will impact the foundry industry as my submitted testimony is much more detailed.    Under the rule, the sharply reduced permissible exposure levels of 50 micrograms and an action level of 25 micrograms equates to the contents of a packet of Sweet'N Low sugar over a football field 13 feet high. This is the same air quality requirements of a clean room. Metal casting operations are simply not capable of achieving this level of dust control.    The rule also mandates extensive and costly engineering controls. Metal casters will have to exhaust all feasible engineering and work practice controls to meet the expense of requirements before we are allowed to use respirators. This means we could be forced to spend well over $1.4 million with no guarantee they will work.    There are certain operations in the foundry, such as grinding, where no matter how much is spent on controls, consistent compliance will not be achieved. Under the rule, regulated areas with control access and mandatory respirator usage will need to be established. This presents a logistical nightmare as it means that a forklift operator or a manager who may be in the area for just a minute will need to put on a respirator and will not be able to talk.    Under the regulation, dry vacuuming is not allowed and a wet vac will now be required. This is wrong. As everybody knows, you never, ever want to introduce water in an area where molten metal is poured. An explosion could occur, and workers lives' would be jeopardized. Also, other metal objects which may be wet, might not even be wet, but may be wet, can no longer be recycled and will go into our landfills.    OSHA drastically underestimates the cost to comply, and disregards the intent of SBREFA. In reality, the actual costs of the rule are 50 times higher than OSHA estimates, and in the final rule, OSHA estimated costs of compliance for the foundry industry was at $47 million or $32,000 per foundry. Our independent analysis shows the rule actually costs the industry over $2.2 billion, which equates to over $1 million per foundry.    Additional costs include capital equipment, plant modifications, lost production time, recordkeeping, training, legal, medical, permits, engineering, monitoring, cleaning, and sand disposal expenses.    In closing, although very well intended, our concern is that OSHA's silica regulation will cause significant foundry closures which will shift production offshore to countries like China, who have minimum worker safety rules.    I firmly believe that this rule not only poses a threat to our national security, but it will also cause many good, highly skilled people from numerous manufacturing sectors to lose their jobs.    Mr. Chairman, I would submit this is simply wrong. Thank you for the opportunity to be here today, and I would be happy to respond to any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Ms. Herschkowitz. Dr. Melius, your 5 minutes are recognized right now.</t>
   </si>
   <si>
+    <t>Melius</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Melius. Thank you, Honorable Chairman Walberg, Ranking Member Wilson, other members of the subcommittee. I greatly appreciate the opportunity to appear before you today at this hearing.    As you said earlier, I was an occupational physician and epidemiologist. I currently work for labor-management organizations within the unionized construction industry, focusing on health and safety issues in construction.    I have over 40 years of experience in occupational and environmental health. I have been involved, I have followed the development and public review of the recently released OSHA silica standard, submitted comments, and testified at the hearings, and submitted post-hearing comments on the proposed standard.    One of my first patients, while working in an occupational medicine clinic in Chicago in the 1970s, was a young man with severe and rapidly progressive silicosis caused by his work in a foundry. He died while in his early thirties from this disease, leaving a young family.    Throughout my career in occupational health, I have continued to encounter cases of silicosis among foundry and construction workers. As Representative Wilson has already introduced, the three bricklayers and family members of bricklayers are behind me, who experienced in their family or themselves silicosis.    We recently did a small survey of our tunnel workers in New York and found nearly 40 percent of them--again, young tunnel workers--had developed early stages of silicosis as a result of their work building tunnels in the New York City area.    Silicosis is not just a disease of the past. Workers continue to develop this disease and the illness can have a serious impact on their health, their ability to work, and on their families.    I believe that OSHA has done an excellent job of developing the new silicosis standard. I would like to outline a few of the major reasons why I believe this regulation is a significant step forward in addressing this major occupational health problem.    OSHA's review of the available scientific data and additional scientific studies presented during the rulemaking process provide a sound scientific basis for the new standard. They have identified key diseases, and the more recent scientific studies have provided the basis for the new standard that they put forward of 50 micrograms per cubic meter.    The current OSHA standard, as has been mentioned, comes from the 1920s. It was based on a purely practical way of what could be done to deal with some of the extremely high exposures in some of the industries at that time, tunnel, quarry work, and so forth.    That standard has not been changed until recently, and if that standard were still in place and left in place, one could have a very high rate of cancer, silicosis, and other silica related diseases among people working at those levels of exposure.    Some of the extrapolations in the OSHA rulemaking process estimated up to 100 percent of construction workers exposed to silica would at the then-current standard develop silicosis. It is clearly unacceptable not to control this to a much lower limit.    We do not view and I do not view the major problem to be an issue of enforcement. I believe the major problem is that the current standard in place is not adequate to prevent most silica-related illnesses. We need to change the standard, it has gone on for far too long.    I think it is also important as some of the other witnesses have stated, that we need to have practical ways of controlling exposure. As I look at it, whether it is a half- full or half empty glass, I think a major step forward in construction is to have these tasks outlined and to make compliance easier in that industry.    Up here, I am showing two of the pictures. These are people, bricklayers, and the effect of ventilation from the equipment they use. This is a milling machine that is used to take up old pavement. I do not know if you can turn that so it can be seen by the committee. Again, this is a before and after picture.    The asphalt paving industry put a lot of effort into developing proper ventilation controls for their industry in order to be able to meet the silica standards. This work started long before the standard was even proposed.    As you can see in the first picture, and if you have ever been behind a milling machine, you know how much dust is generated, and in the second picture, which I actually believe is a picture from Michigan, by the way, the Upper Peninsula, where some of this research was done, showing that with proper ventilation, ventilation being readily available through all manufacturers, you can control silica exposures. They were able to meet the new standard through this, and at a relatively reasonable price for doing so.    I think this kind of development--I think one thing that is important in looking at costs and effectiveness is not only the fact that people will meet the standard, but they will develop better technology and better approaches to be able to do that.    I think we have to take that into account as we look forward to what is going to happen as a result of this standard going into place.    I will end my oral testimony here. I am out of time, I see. I would be glad to answer any questions later. Thank you.    [The statement and additional submission of Dr. Melius follows:]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Walberg. Thank you, Doctor, and thank you for bringing my thoughts back to Pure Michigan. Now, for your five minutes of testimony, we recognize Mr. Chajet.</t>
   </si>
   <si>
+    <t>Chajet</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chajet. Thank you, Mr. Chairman, and members of the Committee.</t>
   </si>
   <si>
@@ -109,6 +136,12 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rokita. Thank you, Chairman. I appreciate having this hearing. Mr. Chajet, you have practiced law, you have experience practicing administrative law, correct?</t>
   </si>
   <si>
@@ -229,6 +262,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman, and thank you for your attention to this matter, bringing this before the Committee, and thank you to the panel for being here today and providing your testimony.    Mr. Brady, I was interested in hearing all of this testimony. It is amazing to me what is going on here and how pervasive it is across the government and the economy. We hear the same concern in just about every section of the economy that is regulated by the Federal government.    Your testimony highlights some of the safety concerns that engineering controls create, such as water sprays on a tile roof. It seems to me that we might be solving a problem and creating another. Can you explain how the final rule fails to adequately address the safety concerns?</t>
   </si>
   <si>
@@ -274,6 +313,12 @@
     <t>412585</t>
   </si>
   <si>
+    <t>Pocan</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pocan. Thank you, Mr. Chairman, and thank you to the witnesses for being here. I think this is my third hearing on silica.    I have to admit sometimes I start to lose my patience a little as we go through these hearings when I hear some of the comments. I am not a lawyer. I am not the CEO of a big business. I have a small specialty printing business, a union shop. I have done every job that any employee in my business has done over the years. I only make money when I have customers and when I have employees to do the work because I cannot do everything. I value my employees far more than I value my equipment.    We just bought a brand new UV printer that was about $75,000. I can buy a cheaper solvent printer for $25,000, but that puts organic compounds into the air, causes health risks. There are other good things about the printer, but clearly, part of the decision I made was I want to make sure my employees are not exposed to problems.    I have heard a lot of bad math and slippery language during this debate. So, if I can maybe just try to address some of this and ask a few questions.    Mr. Chajet, I am going to pass on you right now and ask the people who are employers questions. I know you raised a lot of concerns about sand. Honestly, my guess is as a lawyer for the U.S. Chamber, the closest you are going to get to exposure to sand is if you go on vacation to the Caribbean.    Let me ask Mr. Brady a question, if I could, specifically. There is another construction company, a medium-sized company in Illinois, Englewood Construction, and the director of operations there, if I could just read his quote real quickly in the time I have. Let me just get to the relevant part maybe.    He said, ``Many of the new silica guidelines formulize existing best practices. Elements of the silica rule will require real change and will take time, effort, and yes, money, to implement consistently. It is easy to see the cost of protection for our workers, but how do you put a price on workers' health and long-term well-being?'' He goes on a little longer.    I really sympathize with that because I understand. I think you have employees and I am sure you go to their family events, you watch their kids graduate, and everything, and I know that is an important part of it. One of the things you said is you talked about up to 3.2 million construction workers and these physicals they are going to have.    The reality is it is only if they have 30 days on a respirator, and that is only a fraction, a very small fraction of the jobs that require it, and it is every three years. I put that in the ``slippery language'' category. It is not quite where it is at.    I would ask the question, how do you value what a life is worth? What is a life worth? It is a tough question.</t>
   </si>
   <si>
@@ -319,6 +364,9 @@
     <t xml:space="preserve">    Chairman Walberg. I will now recognize the Ranking Member of the full Committee, Mr. Scott, for his questioning.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman. Dr. Melius, can you give us a little history about how long we have known about the dangers of silica?</t>
   </si>
   <si>
@@ -370,6 +418,12 @@
     <t>412607</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Chairman Walberg and Ranking Member Wilson, and I would also like to thank our witnesses for testifying today.    Before I get started, I want to just make a very simple point about the Department of Labor. One of their primary reasons for existence is to improve working conditions for working people. It is clear that the purpose of this rule is to improve the working conditions of some of our most vulnerable employees.    As we know, exposure to silica is a serious health hazard, and while many have pointed to reductions in silicosis as a reason to oppose this rule, I believe these generalizations are very misguided, especially for low-wage workers who are often workers of color.    Silica dust-related illnesses have a greater impact on low-income and ethnic minority groups than on the job populations, and it is especially true for the Latino community.    Dr. Melius, with that in mind, can you speak to the positive impact this rule will have on low-wage earners and communities of color who are disproportionately affected by silica-related illnesses?</t>
   </si>
   <si>
@@ -392,6 +446,9 @@
   </si>
   <si>
     <t>412613</t>
+  </si>
+  <si>
+    <t>DeSaulnier</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Desaulnier. Thank you, Mr. Chairman. First, a question for Ms. Herschkowitz. I was just handed this document that I am told is part of a trade association that you are a part of, ``Control Silica Exposure in Foundries,'' are you familiar with this?</t>
@@ -845,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,3461 +932,4050 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
       <c r="H28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
       <c r="H69" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G71" t="s">
+        <v>99</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G73" t="s">
+        <v>99</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>99</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G79" t="s">
+        <v>99</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G81" t="s">
+        <v>99</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>85</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G102" t="s">
+        <v>134</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>117</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G104" t="s">
+        <v>134</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G106" t="s">
+        <v>134</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>117</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G108" t="s">
+        <v>134</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>135</v>
+      </c>
+      <c r="I108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G110" t="s">
+        <v>144</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>125</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G113" t="s">
+        <v>144</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>125</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G115" t="s">
+        <v>144</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>125</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G117" t="s">
+        <v>144</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>25</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>125</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G119" t="s">
+        <v>144</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>125</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G121" t="s">
+        <v>144</v>
+      </c>
       <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s">
+        <v>28</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s">
+        <v>28</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
       <c r="H143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
       <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>160</v>
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99775.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99775.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="184">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412213</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Walberg</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412412</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>412426</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rokita</t>
@@ -902,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +922,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,4047 +947,4348 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G79" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G81" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>116</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>120</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>120</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>120</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>120</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>116</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>120</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>116</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>120</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G104" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>31</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G106" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I106" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G108" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G110" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H110" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G112" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H112" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G113" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H113" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G115" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H115" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G117" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H117" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G119" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H119" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G121" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="I121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>28</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>28</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>28</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>28</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>28</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I143" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I144" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>179</v>
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
